--- a/Gantt_projet_3.xlsx
+++ b/Gantt_projet_3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Planejador de Projetos" sheetId="1" r:id="rId1"/>
@@ -1500,7 +1500,7 @@
   <dimension ref="B1:BO28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.875" defaultRowHeight="30.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1537,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="22" t="s">
@@ -1854,9 +1854,11 @@
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6">
+        <v>4</v>
+      </c>
       <c r="G6" s="7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1912,9 +1914,11 @@
       <c r="E9" s="6">
         <v>2</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
       <c r="G9" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1987,10 +1991,12 @@
       <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6">
+        <v>5</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2003,10 +2009,14 @@
       <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt_projet_3.xlsx
+++ b/Gantt_projet_3.xlsx
@@ -1500,7 +1500,7 @@
   <dimension ref="B1:BO28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.875" defaultRowHeight="30.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1537,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="22" t="s">
@@ -1994,9 +1994,11 @@
       <c r="E13" s="6">
         <v>5</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
       <c r="G13" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2029,10 +2031,12 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6">
+        <v>6</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2077,10 +2081,12 @@
       <c r="D18" s="6">
         <v>3</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6">
+        <v>6</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
